--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>F12</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.348311</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N2">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O2">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P2">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q2">
-        <v>0.3775472384588334</v>
+        <v>0.4276479443878333</v>
       </c>
       <c r="R2">
-        <v>2.265283430753</v>
+        <v>2.565887666327</v>
       </c>
       <c r="S2">
-        <v>0.2617763977697001</v>
+        <v>0.1457481413060297</v>
       </c>
       <c r="T2">
-        <v>0.2047449818594686</v>
+        <v>0.1167063093809994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.348311</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P3">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q3">
         <v>0.1330167586985556</v>
@@ -641,10 +641,10 @@
         <v>1.197150828287</v>
       </c>
       <c r="S3">
-        <v>0.09222858595721403</v>
+        <v>0.04533389110666493</v>
       </c>
       <c r="T3">
-        <v>0.1082030713212751</v>
+        <v>0.05445096321842519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,40 +673,40 @@
         <v>0.348311</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N4">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O4">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P4">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q4">
-        <v>0.1262775987693333</v>
+        <v>0.05819645980077778</v>
       </c>
       <c r="R4">
-        <v>1.136498388924</v>
+        <v>0.523768138207</v>
       </c>
       <c r="S4">
-        <v>0.08755591766418913</v>
+        <v>0.01983413215909698</v>
       </c>
       <c r="T4">
-        <v>0.1027210718378895</v>
+        <v>0.02382296278347912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.348311</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N5">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O5">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P5">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q5">
-        <v>0.2612298829936667</v>
+        <v>0.2194906728788333</v>
       </c>
       <c r="R5">
-        <v>1.567379297962</v>
+        <v>1.316944037273</v>
       </c>
       <c r="S5">
-        <v>0.1811265208534658</v>
+        <v>0.07480535806595094</v>
       </c>
       <c r="T5">
-        <v>0.141665736645353</v>
+        <v>0.05989961301441401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.348311</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N6">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O6">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P6">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q6">
-        <v>0.2990432604768889</v>
+        <v>0.3516160069753333</v>
       </c>
       <c r="R6">
-        <v>2.691389344292</v>
+        <v>3.164544062777999</v>
       </c>
       <c r="S6">
-        <v>0.207344828754407</v>
+        <v>0.1198354397411218</v>
       </c>
       <c r="T6">
-        <v>0.2432580643079437</v>
+        <v>0.1439354743729093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.348311</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.4390792107664924</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N7">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O7">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P7">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q7">
-        <v>0.2451361345374444</v>
+        <v>0.09835954329</v>
       </c>
       <c r="R7">
-        <v>2.206225210837</v>
+        <v>0.88523588961</v>
       </c>
       <c r="S7">
-        <v>0.169967749001024</v>
+        <v>0.033522248387628</v>
       </c>
       <c r="T7">
-        <v>0.19940707402807</v>
+        <v>0.04026388799626531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.444965</v>
+      </c>
+      <c r="I8">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J8">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.6833285</v>
+      </c>
+      <c r="N8">
+        <v>7.366657</v>
+      </c>
+      <c r="O8">
+        <v>0.3319404283605227</v>
+      </c>
+      <c r="P8">
+        <v>0.2657978481314736</v>
+      </c>
+      <c r="Q8">
+        <v>0.5463174220008333</v>
+      </c>
+      <c r="R8">
+        <v>3.277904532005</v>
+      </c>
+      <c r="S8">
+        <v>0.186192287054493</v>
+      </c>
+      <c r="T8">
+        <v>0.1490915387504742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.444965</v>
+      </c>
+      <c r="I9">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J9">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.437017</v>
+      </c>
+      <c r="O9">
+        <v>0.1032476373170262</v>
+      </c>
+      <c r="P9">
+        <v>0.1240117087834133</v>
+      </c>
+      <c r="Q9">
+        <v>0.1699280299338889</v>
+      </c>
+      <c r="R9">
+        <v>1.529352269405</v>
+      </c>
+      <c r="S9">
+        <v>0.05791374621036131</v>
+      </c>
+      <c r="T9">
+        <v>0.06956074556498809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.444965</v>
+      </c>
+      <c r="I10">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J10">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5012456666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.503737</v>
+      </c>
+      <c r="O10">
+        <v>0.04517210487937449</v>
+      </c>
+      <c r="P10">
+        <v>0.05425664025835297</v>
+      </c>
+      <c r="Q10">
+        <v>0.07434559268944445</v>
+      </c>
+      <c r="R10">
+        <v>0.669110334205</v>
+      </c>
+      <c r="S10">
+        <v>0.02533797272027752</v>
+      </c>
+      <c r="T10">
+        <v>0.03043367747487385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.444965</v>
+      </c>
+      <c r="I11">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J11">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.8904715</v>
+      </c>
+      <c r="N11">
+        <v>3.780943</v>
+      </c>
+      <c r="O11">
+        <v>0.1703687084965025</v>
+      </c>
+      <c r="P11">
+        <v>0.1364209726756327</v>
+      </c>
+      <c r="Q11">
+        <v>0.2803978836658333</v>
+      </c>
+      <c r="R11">
+        <v>1.682387301995</v>
+      </c>
+      <c r="S11">
+        <v>0.0955633504305516</v>
+      </c>
+      <c r="T11">
+        <v>0.07652135966121865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.444965</v>
+      </c>
+      <c r="I12">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J12">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.028466</v>
+      </c>
+      <c r="N12">
+        <v>9.085398</v>
+      </c>
+      <c r="O12">
+        <v>0.2729244218416247</v>
+      </c>
+      <c r="P12">
+        <v>0.3278120914029245</v>
+      </c>
+      <c r="Q12">
+        <v>0.4491871245633333</v>
+      </c>
+      <c r="R12">
+        <v>4.04268412107</v>
+      </c>
+      <c r="S12">
+        <v>0.1530889821005029</v>
+      </c>
+      <c r="T12">
+        <v>0.1838766170300151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1483216666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.444965</v>
+      </c>
+      <c r="I13">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="J13">
+        <v>0.5609207892335076</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8471700000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.54151</v>
+      </c>
+      <c r="O13">
+        <v>0.07634669910494926</v>
+      </c>
+      <c r="P13">
+        <v>0.09170073874820307</v>
+      </c>
+      <c r="Q13">
+        <v>0.12565366635</v>
+      </c>
+      <c r="R13">
+        <v>1.13088299715</v>
+      </c>
+      <c r="S13">
+        <v>0.04282445071732127</v>
+      </c>
+      <c r="T13">
+        <v>0.05143685075193776</v>
       </c>
     </row>
   </sheetData>
